--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saile\OneDrive - Otto-Friedrich-Universität Bamberg\ms-framework-comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DD3B4B-7414-44A5-92CD-1B68D0A12467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99375C89-6F4C-4DF9-922C-0ED7B1AD5D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="54">
   <si>
     <t>JAVA</t>
   </si>
@@ -167,32 +167,41 @@
     <t>2.1 CQRS</t>
   </si>
   <si>
-    <t>3.1 Interface specification</t>
-  </si>
-  <si>
     <t>4. Smart Endpoints and Dumb Pipes</t>
   </si>
   <si>
     <t>4.1 API Gateway</t>
   </si>
   <si>
-    <t>4.4 Service coordination</t>
-  </si>
-  <si>
     <t>7.2 Testing</t>
   </si>
   <si>
-    <t>7.3 Continous Deployment</t>
-  </si>
-  <si>
     <t>8.1 Versioning</t>
+  </si>
+  <si>
+    <t>3.1 Interface Specification</t>
+  </si>
+  <si>
+    <t>4.4 Service Coordination</t>
+  </si>
+  <si>
+    <t>7.3 Continuous Deployment</t>
+  </si>
+  <si>
+    <t>NODE.JS</t>
+  </si>
+  <si>
+    <t>Devis</t>
+  </si>
+  <si>
+    <t>Moleculer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -243,8 +252,19 @@
       <color theme="7"/>
       <name val="CMU Serif"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="CMU Serif"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +301,26 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -342,11 +380,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,37 +444,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -418,6 +466,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -800,47 +892,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="1022" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="1022" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.45" customHeight="1">
+    <row r="1" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -875,8 +973,14 @@
         <v>13</v>
       </c>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="30">
+      <c r="M2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -891,8 +995,10 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="29.25">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -929,8 +1035,10 @@
       <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -967,9 +1075,11 @@
       <c r="L5" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="18" t="s">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1003,8 +1113,10 @@
       <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1041,112 +1153,128 @@
       <c r="L7" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="B9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1159,46 +1287,50 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>45</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1235,8 +1367,10 @@
       <c r="L14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1273,24 +1407,28 @@
       <c r="L15" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" ht="30">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+    </row>
+    <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1305,16 +1443,18 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>15</v>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>15</v>
@@ -1334,17 +1474,19 @@
       <c r="I18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>14</v>
+      <c r="J18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1359,8 +1501,10 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1397,8 +1541,10 @@
       <c r="L20" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1435,8 +1581,10 @@
       <c r="L21" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1473,8 +1621,10 @@
       <c r="L22" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1511,8 +1661,10 @@
       <c r="L23" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1549,8 +1701,10 @@
       <c r="L24" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1587,8 +1741,10 @@
       <c r="L25" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1625,42 +1781,36 @@
       <c r="L26" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>14</v>
+      <c r="C28" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>14</v>
@@ -1689,245 +1839,324 @@
       <c r="L28" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12">
+        <v>50</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="20" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="23">
         <f>COUNTIF(B4:B32,"✓")</f>
+        <v>14</v>
+      </c>
+      <c r="C33" s="23">
+        <f t="shared" ref="B33:L33" si="0">COUNTIF(C4:C32,"✓")</f>
+        <v>5</v>
+      </c>
+      <c r="D33" s="23">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C33" s="17">
-        <f>COUNTIF(C4:C32,"✓")</f>
-        <v>5</v>
-      </c>
-      <c r="D33" s="17">
-        <f>COUNTIF(D4:D32,"✓")</f>
-        <v>12</v>
-      </c>
-      <c r="E33" s="17">
-        <f>COUNTIF(E4:E32,"✓")</f>
-        <v>15</v>
-      </c>
-      <c r="F33" s="17">
-        <f>COUNTIF(F4:F32,"✓")</f>
+      <c r="E33" s="23">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G33" s="17">
-        <f>COUNTIF(G4:G32,"✓")</f>
-        <v>17</v>
-      </c>
-      <c r="H33" s="17">
-        <f>COUNTIF(H4:H32,"✓")</f>
-        <v>6</v>
-      </c>
-      <c r="I33" s="17">
-        <f>COUNTIF(I4:I32,"✓")</f>
+      <c r="F33" s="23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J33" s="17">
-        <f>COUNTIF(J4:J32,"✓")</f>
+      <c r="I33" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J33" s="23">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K33" s="17">
-        <f>COUNTIF(K4:K32,"✓")</f>
-        <v>12</v>
-      </c>
-      <c r="L33" s="17">
-        <f>COUNTIF(L4:L32,"✓")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="11" t="s">
+      <c r="K33" s="23">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L33" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M33" s="23">
+        <f t="shared" ref="M33" si="1">COUNTIF(M4:M32,"✓")</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="23">
+        <f t="shared" ref="N33" si="2">COUNTIF(N4:N32,"✓")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="17">
-        <f>COUNTIF(B4:B32,"–")</f>
+      <c r="B34" s="22">
+        <f t="shared" ref="B34:N34" si="3">COUNTIF(B4:B32,"–")</f>
         <v>4</v>
       </c>
-      <c r="C34" s="17">
-        <f>COUNTIF(C4:C32,"–")</f>
-        <v>14</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="C34" s="22">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D34" s="22">
         <f>COUNTIF(D4:D32,"–")</f>
         <v>7</v>
       </c>
-      <c r="E34" s="17">
-        <f>COUNTIF(E4:E32,"–")</f>
+      <c r="E34" s="22">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F34" s="17">
-        <f>COUNTIF(F4:F32,"–")</f>
+      <c r="F34" s="22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I34" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K34" s="22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M34" s="22">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="17">
-        <f>COUNTIF(G4:G32,"–")</f>
+      <c r="N34" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="22">
+        <f t="shared" ref="B35:N35" si="4">COUNTIF(B4:B32,"✗")</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H34" s="17">
-        <f>COUNTIF(H4:H32,"–")</f>
-        <v>6</v>
-      </c>
-      <c r="I34" s="17">
-        <f>COUNTIF(I4:I32,"–")</f>
-        <v>10</v>
-      </c>
-      <c r="J34" s="17">
-        <f>COUNTIF(J4:J32,"–")</f>
-        <v>7</v>
-      </c>
-      <c r="K34" s="17">
-        <f>COUNTIF(K4:K32,"–")</f>
-        <v>6</v>
-      </c>
-      <c r="L34" s="17">
-        <f>COUNTIF(L4:L32,"–")</f>
+      <c r="F35" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="17">
-        <f>COUNTIF(B4:B32,"✗")</f>
+      <c r="I35" s="22">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C35" s="17">
-        <f>COUNTIF(C4:C32,"✗")</f>
-        <v>1</v>
-      </c>
-      <c r="D35" s="17">
-        <f>COUNTIF(D4:D32,"✗")</f>
-        <v>1</v>
-      </c>
-      <c r="E35" s="17">
-        <f>COUNTIF(E4:E32,"✗")</f>
-        <v>1</v>
-      </c>
-      <c r="F35" s="17">
-        <f>COUNTIF(F4:F32,"✗")</f>
+      <c r="J35" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K35" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="M35" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G35" s="17">
-        <f>COUNTIF(G4:G32,"✗")</f>
+      <c r="N35" s="22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H35" s="17">
-        <f>COUNTIF(H4:H32,"✗")</f>
-        <v>8</v>
-      </c>
-      <c r="I35" s="17">
-        <f>COUNTIF(I4:I32,"✗")</f>
-        <v>3</v>
-      </c>
-      <c r="J35" s="17">
-        <f>COUNTIF(J4:J32,"✗")</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="17">
-        <f>COUNTIF(K4:K32,"✗")</f>
-        <v>1</v>
-      </c>
-      <c r="L35" s="17">
-        <f>COUNTIF(L4:L32,"✗")</f>
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saile\OneDrive - Otto-Friedrich-Universität Bamberg\ms-framework-comparison\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99375C89-6F4C-4DF9-922C-0ED7B1AD5D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500DEAB2-CFB0-4B76-B120-5F2D1EB84D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="55">
   <si>
     <t>JAVA</t>
   </si>
@@ -195,13 +195,16 @@
   </si>
   <si>
     <t>Moleculer</t>
+  </si>
+  <si>
+    <t>MicroProfile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -454,10 +457,54 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,50 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -892,53 +895,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
-    <col min="15" max="1022" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="1023" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="17.45" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="15" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="31"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -961,26 +965,29 @@
         <v>9</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -994,11 +1001,12 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L3" s="6"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1020,25 +1028,28 @@
       <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1060,25 +1071,28 @@
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
+      <c r="H5" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>15</v>
+      <c r="J5" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -1097,12 +1111,14 @@
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>14</v>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>14</v>
@@ -1113,10 +1129,13 @@
       <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1138,11 +1157,9 @@
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>14</v>
@@ -1150,71 +1167,78 @@
       <c r="K7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1229,50 +1253,54 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M10" s="14"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-    </row>
-    <row r="12" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+    </row>
+    <row r="12" spans="1:15" ht="30">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1286,51 +1314,55 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L12" s="6"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="B13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1384,7 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -1367,10 +1399,13 @@
       <c r="L14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1392,11 +1427,11 @@
       <c r="G15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>15</v>
+      <c r="H15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>15</v>
@@ -1407,10 +1442,13 @@
       <c r="L15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1420,15 +1458,18 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="M16" s="11"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" ht="30">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1442,11 +1483,12 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L17" s="6"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1468,25 +1510,28 @@
       <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>16</v>
+      <c r="J18" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1500,11 +1545,12 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L19" s="6"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1526,25 +1572,28 @@
       <c r="G20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>15</v>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1566,14 +1615,14 @@
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>16</v>
+      <c r="H21" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>15</v>
+      <c r="J21" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>15</v>
@@ -1581,10 +1630,13 @@
       <c r="L21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1606,8 +1658,8 @@
       <c r="G22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>16</v>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>16</v>
@@ -1618,13 +1670,16 @@
       <c r="K22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1646,14 +1701,14 @@
       <c r="G23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>14</v>
+      <c r="H23" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>15</v>
+      <c r="J23" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>15</v>
@@ -1661,10 +1716,13 @@
       <c r="L23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1686,14 +1744,14 @@
       <c r="G24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>15</v>
+      <c r="H24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>15</v>
@@ -1701,10 +1759,13 @@
       <c r="L24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1738,13 +1799,16 @@
       <c r="K25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1766,11 +1830,11 @@
       <c r="G26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>15</v>
+      <c r="H26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>15</v>
@@ -1778,13 +1842,16 @@
       <c r="K26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1794,15 +1861,16 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="L27" s="6"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -1824,14 +1892,14 @@
       <c r="G28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>14</v>
+      <c r="H28" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>15</v>
+      <c r="J28" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>15</v>
@@ -1839,10 +1907,13 @@
       <c r="L28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -1870,8 +1941,8 @@
       <c r="I29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>16</v>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>16</v>
@@ -1879,10 +1950,13 @@
       <c r="L29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
@@ -1904,14 +1978,14 @@
       <c r="G30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="22" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>15</v>
+      <c r="J30" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>15</v>
@@ -1919,10 +1993,13 @@
       <c r="L30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" thickTop="1">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1937,226 +2014,242 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="24" t="s">
+      <c r="M31" s="14"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="27" t="s">
+      <c r="B32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickTop="1">
+      <c r="A33" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="19">
         <f>COUNTIF(B4:B32,"✓")</f>
         <v>14</v>
       </c>
-      <c r="C33" s="23">
-        <f t="shared" ref="B33:L33" si="0">COUNTIF(C4:C32,"✓")</f>
+      <c r="C33" s="19">
+        <f t="shared" ref="C33:M33" si="0">COUNTIF(C4:C32,"✓")</f>
         <v>5</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="19">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H33" s="23">
+        <v>19</v>
+      </c>
+      <c r="H33" s="19">
+        <f>COUNTIF(H4:H32,"✓")</f>
+        <v>13</v>
+      </c>
+      <c r="I33" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I33" s="23">
+      <c r="J33" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J33" s="23">
+      <c r="K33" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="K33" s="23">
+      <c r="L33" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L33" s="23">
+      <c r="M33" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M33" s="23">
-        <f t="shared" ref="M33" si="1">COUNTIF(M4:M32,"✓")</f>
+      <c r="N33" s="19">
+        <f t="shared" ref="N33" si="1">COUNTIF(N4:N32,"✓")</f>
         <v>0</v>
       </c>
-      <c r="N33" s="23">
-        <f t="shared" ref="N33" si="2">COUNTIF(N4:N32,"✓")</f>
+      <c r="O33" s="19">
+        <f t="shared" ref="O33" si="2">COUNTIF(O4:O32,"✓")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:15">
+      <c r="A34" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="22">
-        <f t="shared" ref="B34:N34" si="3">COUNTIF(B4:B32,"–")</f>
+      <c r="B34" s="18">
+        <f t="shared" ref="B34:O34" si="3">COUNTIF(B4:B32,"–")</f>
         <v>4</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="18">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="18">
         <f>COUNTIF(D4:D32,"–")</f>
         <v>7</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="18">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="18">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J34" s="18">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J34" s="22">
+      <c r="K34" s="18">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K34" s="22">
+      <c r="L34" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L34" s="22">
+      <c r="M34" s="18">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M34" s="22">
+      <c r="N34" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N34" s="22">
+      <c r="O34" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:15">
+      <c r="A35" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="22">
-        <f t="shared" ref="B35:N35" si="4">COUNTIF(B4:B32,"✗")</f>
+      <c r="B35" s="18">
+        <f t="shared" ref="B35:O35" si="4">COUNTIF(B4:B32,"✗")</f>
         <v>3</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="18">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="18">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I35" s="22">
+      <c r="J35" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J35" s="22">
+      <c r="K35" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K35" s="22">
+      <c r="L35" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="L35" s="22">
+      <c r="M35" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M35" s="22">
+      <c r="N35" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22">
+      <c r="O35" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500DEAB2-CFB0-4B76-B120-5F2D1EB84D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3235F1-04E7-452C-BF24-F7DE574576AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="55">
   <si>
     <t>JAVA</t>
   </si>
@@ -182,9 +182,6 @@
     <t>3.1 Interface Specification</t>
   </si>
   <si>
-    <t>4.4 Service Coordination</t>
-  </si>
-  <si>
     <t>7.3 Continuous Deployment</t>
   </si>
   <si>
@@ -198,13 +195,16 @@
   </si>
   <si>
     <t>MicroProfile</t>
+  </si>
+  <si>
+    <t>4.4 Service Workflows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -260,11 +260,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="CMU Serif"/>
     </font>
   </fonts>
   <fills count="10">
@@ -415,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,9 +445,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -489,9 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -898,7 +887,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -917,30 +906,30 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17.45" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="29" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="27"/>
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="31"/>
+      <c r="N1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
@@ -965,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>10</v>
@@ -981,10 +970,10 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1003,8 +992,8 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
@@ -1046,8 +1035,8 @@
       <c r="M4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
@@ -1071,7 +1060,7 @@
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -1089,11 +1078,11 @@
       <c r="M5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1132,8 +1121,8 @@
       <c r="M6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
@@ -1173,132 +1162,132 @@
       <c r="M7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
+      <c r="B9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:15" ht="30">
       <c r="A12" s="2" t="s">
@@ -1316,51 +1305,51 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="B13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
@@ -1384,7 +1373,7 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="9" t="s">
@@ -1402,8 +1391,8 @@
       <c r="M14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
@@ -1445,29 +1434,55 @@
       <c r="M15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="I16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="30">
       <c r="A17" s="2" t="s">
@@ -1485,8 +1500,8 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="7" t="s">
@@ -1528,8 +1543,8 @@
       <c r="M18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
@@ -1547,8 +1562,8 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="7" t="s">
@@ -1590,8 +1605,8 @@
       <c r="M20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="7" t="s">
@@ -1615,7 +1630,7 @@
       <c r="G21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -1633,8 +1648,8 @@
       <c r="M21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="7" t="s">
@@ -1676,8 +1691,8 @@
       <c r="M22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="7" t="s">
@@ -1719,8 +1734,8 @@
       <c r="M23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="7" t="s">
@@ -1762,8 +1777,8 @@
       <c r="M24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="7" t="s">
@@ -1805,8 +1820,8 @@
       <c r="M25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
@@ -1848,8 +1863,8 @@
       <c r="M26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
@@ -1867,8 +1882,8 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
@@ -1910,8 +1925,8 @@
       <c r="M28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
@@ -1953,12 +1968,12 @@
       <c r="M29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>14</v>
@@ -1978,7 +1993,7 @@
       <c r="G30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="8" t="s">
@@ -1996,252 +2011,252 @@
       <c r="M30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickTop="1">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
+      <c r="B32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <f>COUNTIF(B4:B32,"✓")</f>
-        <v>14</v>
-      </c>
-      <c r="C33" s="19">
+        <v>15</v>
+      </c>
+      <c r="C33" s="18">
         <f t="shared" ref="C33:M33" si="0">COUNTIF(C4:C32,"✓")</f>
-        <v>5</v>
-      </c>
-      <c r="D33" s="19">
+        <v>6</v>
+      </c>
+      <c r="D33" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="18">
         <f>COUNTIF(H4:H32,"✓")</f>
         <v>13</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="18">
         <f t="shared" ref="N33" si="1">COUNTIF(N4:N32,"✓")</f>
         <v>0</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="18">
         <f t="shared" ref="O33" si="2">COUNTIF(O4:O32,"✓")</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <f t="shared" ref="B34:O34" si="3">COUNTIF(B4:B32,"–")</f>
         <v>4</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <f>COUNTIF(D4:D32,"–")</f>
         <v>7</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="17">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="17">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <f t="shared" ref="B35:O35" si="4">COUNTIF(B4:B32,"✗")</f>
         <v>3</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="17">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="E35" s="18">
+      <c r="F35" s="17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F35" s="18">
+      <c r="G35" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="17">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J35" s="18">
+        <v>9</v>
+      </c>
+      <c r="J35" s="17">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K35" s="18">
+        <v>4</v>
+      </c>
+      <c r="K35" s="17">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L35" s="18">
+        <v>4</v>
+      </c>
+      <c r="L35" s="17">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M35" s="18">
+        <v>4</v>
+      </c>
+      <c r="M35" s="17">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N35" s="18">
+        <v>4</v>
+      </c>
+      <c r="N35" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="18">
+        <v>1</v>
+      </c>
+      <c r="O35" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saile\OneDrive - Otto-Friedrich-Universität Bamberg\ms-framework-comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3235F1-04E7-452C-BF24-F7DE574576AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C429BB0-DEA6-4B92-AB31-5D2AAF6F4DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="55">
   <si>
     <t>JAVA</t>
   </si>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -262,7 +262,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,12 +291,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -442,48 +436,45 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -500,6 +491,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,99 +878,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="1023" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="10" width="16" customWidth="1"/>
+    <col min="11" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="1021" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.45" customHeight="1">
+    <row r="1" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="27" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -989,24 +984,24 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="K3" s="1"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>14</v>
@@ -1014,14 +1009,14 @@
       <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>14</v>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>15</v>
@@ -1029,64 +1024,68 @@
       <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="L4" s="24"/>
+      <c r="M4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="12" t="s">
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -1094,8 +1093,8 @@
       <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>15</v>
@@ -1103,28 +1102,30 @@
       <c r="G6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
+      <c r="H6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>14</v>
+      <c r="J6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="L6" s="24"/>
       <c r="M6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1134,11 +1135,11 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>15</v>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
@@ -1146,150 +1147,156 @@
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-    </row>
-    <row r="12" spans="1:15" ht="30">
+        <v>15</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1302,70 +1309,72 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="K12" s="1"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>15</v>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>15</v>
@@ -1373,10 +1382,10 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -1385,16 +1394,18 @@
       <c r="K14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="L14" s="24"/>
       <c r="M14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="N14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1404,23 +1415,23 @@
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>15</v>
+      <c r="F15" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>16</v>
+      <c r="H15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>15</v>
@@ -1428,30 +1439,32 @@
       <c r="K15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="L15" s="24"/>
       <c r="M15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="N15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>16</v>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>16</v>
@@ -1484,31 +1497,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30">
+    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="K17" s="1"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>15</v>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
@@ -1516,8 +1529,8 @@
       <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>15</v>
+      <c r="E18" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>15</v>
@@ -1525,28 +1538,30 @@
       <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="K18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="24"/>
       <c r="M18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1559,27 +1574,27 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="K19" s="1"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>15</v>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>15</v>
@@ -1590,82 +1605,86 @@
       <c r="H20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>16</v>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="L21" s="24"/>
       <c r="M21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>15</v>
+      <c r="C22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>15</v>
@@ -1676,25 +1695,27 @@
       <c r="H22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="I22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1719,42 +1740,44 @@
       <c r="H23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>14</v>
+      <c r="I23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="L23" s="24"/>
       <c r="M23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>15</v>
+      <c r="C24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>15</v>
@@ -1762,25 +1785,27 @@
       <c r="H24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>14</v>
+      <c r="I24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="L24" s="24"/>
       <c r="M24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1811,33 +1836,35 @@
       <c r="J25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="K25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="M25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>14</v>
+      <c r="C26" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>15</v>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>15</v>
@@ -1848,49 +1875,51 @@
       <c r="H26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>16</v>
+      <c r="I26" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="K26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="24"/>
+      <c r="M26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>14</v>
+      <c r="B28" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>15</v>
@@ -1901,8 +1930,8 @@
       <c r="E28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>15</v>
+      <c r="F28" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>15</v>
@@ -1910,42 +1939,44 @@
       <c r="H28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>14</v>
+      <c r="I28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="L28" s="24"/>
       <c r="M28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>15</v>
+      <c r="B29" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>15</v>
+      <c r="D29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>15</v>
@@ -1962,309 +1993,318 @@
       <c r="K29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+      <c r="L29" s="24"/>
+      <c r="M29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>14</v>
+      <c r="B30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>15</v>
+      <c r="E30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>14</v>
+      <c r="H30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="L30" s="24"/>
       <c r="M30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickTop="1">
+      <c r="N30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A32" s="19" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickTop="1">
-      <c r="A33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="25"/>
+      <c r="M32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <f>COUNTIF(B4:B32,"✓")</f>
-        <v>15</v>
-      </c>
-      <c r="C33" s="18">
-        <f t="shared" ref="C33:M33" si="0">COUNTIF(C4:C32,"✓")</f>
+        <v>11</v>
+      </c>
+      <c r="C33" s="17">
+        <f>COUNTIF(C4:C32,"✓")</f>
+        <v>13</v>
+      </c>
+      <c r="D33" s="17">
+        <f>COUNTIF(D4:D32,"✓")</f>
+        <v>15</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" ref="E33:J33" si="0">COUNTIF(E4:E32,"✓")</f>
         <v>6</v>
       </c>
-      <c r="D33" s="18">
+      <c r="F33" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E33" s="18">
+      <c r="G33" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F33" s="18">
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G33" s="18">
+      <c r="I33" s="17">
+        <f>COUNTIF(I4:I32,"✓")</f>
+        <v>13</v>
+      </c>
+      <c r="J33" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H33" s="18">
-        <f>COUNTIF(H4:H32,"✓")</f>
+      <c r="K33" s="17">
+        <f>COUNTIF(K4:K32,"✓")</f>
+        <v>10</v>
+      </c>
+      <c r="L33" s="17">
+        <f>COUNTIF(L4:L32,"✓")</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" ref="M33" si="1">COUNTIF(M4:M32,"✓")</f>
+        <v>19</v>
+      </c>
+      <c r="N33" s="17">
+        <f>COUNTIF(N4:N32,"✓")</f>
+        <v>7</v>
+      </c>
+      <c r="O33" s="17">
+        <f>COUNTIF(O4:O32,"✓")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="16">
+        <f>COUNTIF(B4:B32,"–")</f>
+        <v>7</v>
+      </c>
+      <c r="C34" s="16">
+        <f>COUNTIF(C4:C32,"–")</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" ref="D34:M34" si="2">COUNTIF(D4:D32,"–")</f>
+        <v>4</v>
+      </c>
+      <c r="E34" s="16">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I33" s="18">
-        <f t="shared" si="0"/>
+      <c r="F34" s="16">
+        <f>COUNTIF(F4:F32,"–")</f>
         <v>7</v>
       </c>
-      <c r="J33" s="18">
-        <f t="shared" si="0"/>
+      <c r="G34" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" ref="I34" si="3">COUNTIF(I4:I32,"–")</f>
+        <v>6</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K34" s="16">
+        <f>COUNTIF(K4:K32,"–")</f>
         <v>8</v>
       </c>
-      <c r="K33" s="18">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="M33" s="18">
-        <f t="shared" si="0"/>
+      <c r="L34" s="16">
+        <f>COUNTIF(L4:L32,"–")</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N34" s="16">
+        <f>COUNTIF(N4:N32,"–")</f>
+        <v>6</v>
+      </c>
+      <c r="O34" s="16">
+        <f>COUNTIF(O4:O32,"–")</f>
         <v>10</v>
       </c>
-      <c r="N33" s="18">
-        <f t="shared" ref="N33" si="1">COUNTIF(N4:N32,"✓")</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="18">
-        <f t="shared" ref="O33" si="2">COUNTIF(O4:O32,"✓")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="17">
-        <f t="shared" ref="B34:O34" si="3">COUNTIF(B4:B32,"–")</f>
+    </row>
+    <row r="35" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="16">
+        <f>COUNTIF(B4:B32,"✗")</f>
         <v>4</v>
       </c>
-      <c r="C34" s="17">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="D34" s="17">
-        <f>COUNTIF(D4:D32,"–")</f>
-        <v>7</v>
-      </c>
-      <c r="E34" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G34" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H34" s="17">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I34" s="17">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J34" s="17">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K34" s="17">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M34" s="17">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="17">
-        <f t="shared" ref="B35:O35" si="4">COUNTIF(B4:B32,"✗")</f>
+      <c r="C35" s="16">
+        <f>COUNTIF(C4:C32,"✗")</f>
+        <v>4</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" ref="D35:M35" si="4">COUNTIF(D4:D32,"✗")</f>
         <v>3</v>
       </c>
-      <c r="C35" s="17">
+      <c r="E35" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="D35" s="17">
+      <c r="F35" s="16">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="E35" s="17">
+      <c r="G35" s="16">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F35" s="17">
+      <c r="H35" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G35" s="17">
+      <c r="I35" s="16">
+        <f t="shared" ref="I35" si="5">COUNTIF(I4:I32,"✗")</f>
+        <v>2</v>
+      </c>
+      <c r="J35" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H35" s="17">
+      <c r="K35" s="16">
+        <f>COUNTIF(K4:K32,"✗")</f>
+        <v>4</v>
+      </c>
+      <c r="L35" s="16">
+        <f>COUNTIF(L4:L32,"✗")</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="16">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I35" s="17">
-        <f t="shared" si="4"/>
+      <c r="N35" s="16">
+        <f>COUNTIF(N4:N32,"✗")</f>
         <v>9</v>
       </c>
-      <c r="J35" s="17">
-        <f t="shared" si="4"/>
+      <c r="O35" s="16">
+        <f>COUNTIF(O4:O32,"✗")</f>
         <v>4</v>
       </c>
-      <c r="K35" s="17">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="M37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saile\OneDrive - Otto-Friedrich-Universität Bamberg\ms-framework-comparison\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C429BB0-DEA6-4B92-AB31-5D2AAF6F4DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDC12C-E389-46D0-B7D2-3C742B9D51A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="55">
   <si>
     <t>JAVA</t>
   </si>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -255,14 +255,8 @@
       <color theme="7"/>
       <name val="CMU Serif"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +297,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -404,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,8 +461,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -491,9 +480,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -882,51 +868,51 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
-    <col min="11" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="1021" width="10.5546875" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="1021" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="17.45" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="26" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="26"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -971,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -985,12 +971,12 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="24"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="12"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1010,9 @@
       <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="24"/>
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1035,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1057,9 @@
       <c r="K5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1080,7 +1070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1114,7 +1104,9 @@
       <c r="K6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1157,7 +1149,9 @@
       <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1182,12 +1176,12 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="12"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1221,7 +1215,9 @@
       <c r="K9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1232,7 +1228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1246,12 +1242,12 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -1285,7 +1281,9 @@
       <c r="K11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="30">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1310,12 +1308,12 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="12"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -1349,7 +1347,9 @@
       <c r="K13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="24"/>
+      <c r="L13" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1394,9 @@
       <c r="K14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1441,9 @@
       <c r="K15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M15" s="9" t="s">
         <v>15</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15">
       <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="30">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1511,12 +1515,12 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="12"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1554,9 @@
       <c r="K18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="24"/>
+      <c r="L18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M18" s="9" t="s">
         <v>15</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1575,12 +1581,12 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="9"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1614,7 +1620,9 @@
       <c r="K20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M20" s="9" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1659,7 +1667,9 @@
       <c r="K21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M21" s="9" t="s">
         <v>15</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1704,7 +1714,9 @@
       <c r="K22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M22" s="9" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1761,9 @@
       <c r="K23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M23" s="9" t="s">
         <v>15</v>
       </c>
@@ -1760,7 +1774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1808,9 @@
       <c r="K24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M24" s="9" t="s">
         <v>15</v>
       </c>
@@ -1805,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1839,7 +1855,9 @@
       <c r="K25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M25" s="9" t="s">
         <v>15</v>
       </c>
@@ -1850,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1884,7 +1902,9 @@
       <c r="K26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M26" s="9" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +1915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1909,12 +1929,12 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="12"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -1948,7 +1968,9 @@
       <c r="K28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="24"/>
+      <c r="L28" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="M28" s="9" t="s">
         <v>15</v>
       </c>
@@ -1959,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -1993,7 +2015,9 @@
       <c r="K29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M29" s="9" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="15.75" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
@@ -2038,7 +2062,9 @@
       <c r="K30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M30" s="9" t="s">
         <v>15</v>
       </c>
@@ -2049,7 +2075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="15.75" thickTop="1">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2063,12 +2089,12 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="24"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1">
       <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
@@ -2102,8 +2128,10 @@
       <c r="K32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="32" t="s">
+      <c r="L32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N32" s="20" t="s">
@@ -2113,7 +2141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" ht="15.75" thickTop="1">
       <c r="A33" s="21" t="s">
         <v>38</v>
       </c>
@@ -2174,7 +2202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15">
       <c r="A34" s="22" t="s">
         <v>39</v>
       </c>
@@ -2220,7 +2248,7 @@
       </c>
       <c r="L34" s="16">
         <f>COUNTIF(L4:L32,"–")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="2"/>
@@ -2235,7 +2263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15">
       <c r="A35" s="23" t="s">
         <v>40</v>
       </c>
@@ -2281,7 +2309,7 @@
       </c>
       <c r="L35" s="16">
         <f>COUNTIF(L4:L32,"✗")</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M35" s="16">
         <f t="shared" si="4"/>
@@ -2296,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15">
       <c r="M37" s="10"/>
     </row>
   </sheetData>

--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDC12C-E389-46D0-B7D2-3C742B9D51A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA51AC2-7C80-4905-8A40-30015D8163BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="54">
   <si>
     <t>JAVA</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>NODE.JS</t>
-  </si>
-  <si>
-    <t>Devis</t>
   </si>
   <si>
     <t>Moleculer</t>
@@ -392,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,12 +465,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,6 +473,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -864,11 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T15" sqref="T15"/>
+      <selection pane="topRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -879,40 +871,39 @@
     <col min="6" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="10" width="16" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="1021" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="1020" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.45" customHeight="1">
+    <row r="1" spans="1:14" ht="17.45" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="25"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -938,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>9</v>
@@ -948,16 +939,13 @@
         <v>51</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -971,12 +959,11 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1010,20 +997,17 @@
       <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="L4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1057,20 +1041,17 @@
       <c r="K5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>15</v>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1107,17 +1088,14 @@
       <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="M6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1149,20 +1127,17 @@
       <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>16</v>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1176,12 +1151,11 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -1215,20 +1189,17 @@
       <c r="K9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>15</v>
+      <c r="L9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="N9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1242,12 +1213,11 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -1281,20 +1251,17 @@
       <c r="K11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="L11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="30">
+    </row>
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1308,12 +1275,11 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -1347,20 +1313,17 @@
       <c r="K13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="L13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -1394,8 +1357,8 @@
       <c r="K14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>16</v>
+      <c r="L14" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>15</v>
@@ -1403,11 +1366,8 @@
       <c r="N14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1441,22 +1401,19 @@
       <c r="K15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="L15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>16</v>
@@ -1497,11 +1454,8 @@
       <c r="N16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="30">
+    </row>
+    <row r="17" spans="1:14" ht="30">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1515,12 +1469,11 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1507,8 @@
       <c r="K18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>16</v>
+      <c r="L18" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>15</v>
@@ -1563,11 +1516,8 @@
       <c r="N18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1581,12 +1531,11 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -1620,20 +1569,17 @@
       <c r="K20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="L20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -1667,20 +1613,17 @@
       <c r="K21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>15</v>
+      <c r="L21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1714,20 +1657,17 @@
       <c r="K22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>15</v>
+      <c r="L22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -1761,20 +1701,17 @@
       <c r="K23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>15</v>
+      <c r="L23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1808,20 +1745,17 @@
       <c r="K24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="L24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -1855,8 +1789,8 @@
       <c r="K25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>16</v>
+      <c r="L25" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>15</v>
@@ -1864,11 +1798,8 @@
       <c r="N25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1902,20 +1833,17 @@
       <c r="K26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="L26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1929,12 +1857,11 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
         <v>30</v>
       </c>
@@ -1968,20 +1895,17 @@
       <c r="K28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>15</v>
+      <c r="L28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -2015,8 +1939,8 @@
       <c r="K29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>16</v>
+      <c r="L29" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>15</v>
@@ -2024,11 +1948,8 @@
       <c r="N29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
@@ -2062,20 +1983,17 @@
       <c r="K30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>15</v>
+      <c r="L30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" thickTop="1">
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickTop="1">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2089,12 +2007,11 @@
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1">
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="A32" s="18" t="s">
         <v>47</v>
       </c>
@@ -2128,20 +2045,17 @@
       <c r="K32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>16</v>
+      <c r="L32" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="N32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickTop="1">
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickTop="1">
       <c r="A33" s="21" t="s">
         <v>38</v>
       </c>
@@ -2186,23 +2100,19 @@
         <v>10</v>
       </c>
       <c r="L33" s="17">
-        <f>COUNTIF(L4:L32,"✓")</f>
-        <v>0</v>
+        <f t="shared" ref="L33" si="1">COUNTIF(L4:L32,"✓")</f>
+        <v>19</v>
       </c>
       <c r="M33" s="17">
-        <f t="shared" ref="M33" si="1">COUNTIF(M4:M32,"✓")</f>
-        <v>19</v>
+        <f>COUNTIF(M4:M32,"✓")</f>
+        <v>7</v>
       </c>
       <c r="N33" s="17">
         <f>COUNTIF(N4:N32,"✓")</f>
-        <v>7</v>
-      </c>
-      <c r="O33" s="17">
-        <f>COUNTIF(O4:O32,"✓")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:14">
       <c r="A34" s="22" t="s">
         <v>39</v>
       </c>
@@ -2215,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="16">
-        <f t="shared" ref="D34:M34" si="2">COUNTIF(D4:D32,"–")</f>
+        <f t="shared" ref="D34:L34" si="2">COUNTIF(D4:D32,"–")</f>
         <v>4</v>
       </c>
       <c r="E34" s="16">
@@ -2247,23 +2157,19 @@
         <v>8</v>
       </c>
       <c r="L34" s="16">
-        <f>COUNTIF(L4:L32,"–")</f>
-        <v>2</v>
-      </c>
-      <c r="M34" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="M34" s="16">
+        <f>COUNTIF(M4:M32,"–")</f>
+        <v>6</v>
+      </c>
       <c r="N34" s="16">
         <f>COUNTIF(N4:N32,"–")</f>
-        <v>6</v>
-      </c>
-      <c r="O34" s="16">
-        <f>COUNTIF(O4:O32,"–")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:14">
       <c r="A35" s="23" t="s">
         <v>40</v>
       </c>
@@ -2276,7 +2182,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="16">
-        <f t="shared" ref="D35:M35" si="4">COUNTIF(D4:D32,"✗")</f>
+        <f t="shared" ref="D35:L35" si="4">COUNTIF(D4:D32,"✗")</f>
         <v>3</v>
       </c>
       <c r="E35" s="16">
@@ -2308,29 +2214,24 @@
         <v>4</v>
       </c>
       <c r="L35" s="16">
-        <f>COUNTIF(L4:L32,"✗")</f>
-        <v>20</v>
-      </c>
-      <c r="M35" s="16">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="M35" s="16">
+        <f>COUNTIF(M4:M32,"✗")</f>
+        <v>9</v>
+      </c>
       <c r="N35" s="16">
         <f>COUNTIF(N4:N32,"✗")</f>
-        <v>9</v>
-      </c>
-      <c r="O35" s="16">
-        <f>COUNTIF(O4:O32,"✗")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="M37" s="10"/>
+    <row r="37" spans="1:14">
+      <c r="L37" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
+  <mergeCells count="3">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>

--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA51AC2-7C80-4905-8A40-30015D8163BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DE9462-3E6A-407C-BB09-C2252399E128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="54">
   <si>
     <t>JAVA</t>
   </si>
@@ -104,9 +104,6 @@
     <t>4.3 Messaging</t>
   </si>
   <si>
-    <t>5.1 Polyglot Persistance</t>
-  </si>
-  <si>
     <t>6.1 Circuit Breaker</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>4.4 Service Workflows</t>
+  </si>
+  <si>
+    <t>5.1 Polyglot Persistence</t>
   </si>
 </sst>
 </file>
@@ -461,6 +461,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -473,7 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -859,8 +859,8 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R13" sqref="R13"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -879,33 +879,33 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.45" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="25"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -929,14 +929,14 @@
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>10</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>14</v>
@@ -1120,7 +1120,9 @@
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>15</v>
       </c>
@@ -1139,7 +1141,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>14</v>
@@ -1201,7 +1203,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1219,7 +1221,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>14</v>
@@ -1263,7 +1265,7 @@
     </row>
     <row r="12" spans="1:14" ht="30">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1281,7 +1283,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>14</v>
@@ -1413,7 +1415,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>16</v>
@@ -1457,7 +1459,7 @@
     </row>
     <row r="17" spans="1:14" ht="30">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1475,7 +1477,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>16</v>
@@ -1519,7 +1521,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1537,7 +1539,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>15</v>
@@ -1581,7 +1583,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>15</v>
@@ -1625,7 +1627,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>16</v>
@@ -1669,7 +1671,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>15</v>
@@ -1713,7 +1715,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>15</v>
@@ -1757,7 +1759,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>15</v>
@@ -1801,7 +1803,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>15</v>
@@ -1845,7 +1847,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1863,7 +1865,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>15</v>
@@ -1907,7 +1909,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>16</v>
@@ -1951,7 +1953,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1">
       <c r="A30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>15</v>
@@ -1995,7 +1997,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" thickTop="1">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2013,7 +2015,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="A32" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>14</v>
@@ -2057,7 +2059,7 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" thickTop="1">
       <c r="A33" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="17">
         <f>COUNTIF(B4:B32,"✓")</f>
@@ -2089,7 +2091,7 @@
       </c>
       <c r="I33" s="17">
         <f>COUNTIF(I4:I32,"✓")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J33" s="17">
         <f t="shared" si="0"/>
@@ -2114,7 +2116,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="16">
         <f>COUNTIF(B4:B32,"–")</f>
@@ -2171,7 +2173,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="16">
         <f>COUNTIF(B4:B32,"✗")</f>

--- a/Data/Features_Overview.xlsx
+++ b/Data/Features_Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\work\conferences\2020_ESSE\comparison\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DE9462-3E6A-407C-BB09-C2252399E128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE289F0-76C7-4A9B-80F1-5ECB957F9AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="53">
   <si>
     <t>JAVA</t>
   </si>
@@ -92,9 +92,6 @@
     <t>1.1 Distributed Configuration</t>
   </si>
   <si>
-    <t>1.3 Reactive</t>
-  </si>
-  <si>
     <t>1.2 Service Discovery</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>6.6 Metrics</t>
   </si>
   <si>
-    <t>1.4 Access Control</t>
-  </si>
-  <si>
     <t>2.1 CQRS</t>
   </si>
   <si>
@@ -195,6 +189,9 @@
   </si>
   <si>
     <t>5.1 Polyglot Persistence</t>
+  </si>
+  <si>
+    <t>1.3 Access Control</t>
   </si>
 </sst>
 </file>
@@ -253,7 +250,7 @@
       <name val="CMU Serif"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +273,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
@@ -389,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,41 +412,38 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,11 +844,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -879,33 +867,33 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.45" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -929,14 +917,14 @@
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>10</v>
@@ -959,7 +947,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="12"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
@@ -1009,7 +997,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>15</v>
@@ -1032,7 +1020,7 @@
       <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1052,8 +1040,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="11" t="s">
-        <v>19</v>
+      <c r="A6" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>14</v>
@@ -1061,8 +1049,8 @@
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>14</v>
@@ -1076,253 +1064,253 @@
       <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>16</v>
+      <c r="I6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>16</v>
+      <c r="K6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>14</v>
+      <c r="M13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1335,14 +1323,14 @@
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>15</v>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>15</v>
@@ -1350,7 +1338,7 @@
       <c r="H14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -1362,8 +1350,8 @@
       <c r="L14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>15</v>
+      <c r="M14" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>15</v>
@@ -1371,171 +1359,171 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
@@ -1547,29 +1535,29 @@
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>16</v>
+      <c r="D20" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>15</v>
+      <c r="F20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>15</v>
+      <c r="I20" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>14</v>
+      <c r="K20" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>15</v>
@@ -1577,43 +1565,43 @@
       <c r="M20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>14</v>
+      <c r="N20" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>15</v>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>16</v>
+      <c r="F21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>14</v>
+      <c r="I21" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>15</v>
+      <c r="K21" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>15</v>
@@ -1629,17 +1617,17 @@
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>15</v>
@@ -1656,17 +1644,17 @@
       <c r="J22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>14</v>
+      <c r="K22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>16</v>
+      <c r="M22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1682,11 +1670,11 @@
       <c r="D23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>15</v>
+      <c r="E23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>15</v>
@@ -1706,8 +1694,8 @@
       <c r="L23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>14</v>
+      <c r="M23" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>14</v>
@@ -1715,7 +1703,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>15</v>
@@ -1726,11 +1714,11 @@
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>14</v>
+      <c r="E24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>15</v>
@@ -1744,22 +1732,22 @@
       <c r="J24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>15</v>
+      <c r="K24" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>14</v>
+      <c r="M24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>15</v>
@@ -1770,8 +1758,8 @@
       <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>15</v>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>15</v>
@@ -1794,93 +1782,93 @@
       <c r="L25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>15</v>
+      <c r="M25" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>15</v>
@@ -1894,37 +1882,37 @@
       <c r="J28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>15</v>
+      <c r="K28" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="M28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1">
       <c r="A29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>15</v>
@@ -1932,304 +1920,260 @@
       <c r="H29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>15</v>
+      <c r="I29" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>16</v>
+      <c r="K29" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" thickTop="1">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A32" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" thickTop="1">
+      <c r="M29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickTop="1">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickTop="1">
+      <c r="A32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="16">
+        <f t="shared" ref="B32:N32" si="0">COUNTIF(B4:B31,"✓")</f>
+        <v>11</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E32" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K32" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17">
-        <f>COUNTIF(B4:B32,"✓")</f>
-        <v>11</v>
-      </c>
-      <c r="C33" s="17">
-        <f>COUNTIF(C4:C32,"✓")</f>
-        <v>13</v>
-      </c>
-      <c r="D33" s="17">
-        <f>COUNTIF(D4:D32,"✓")</f>
-        <v>15</v>
-      </c>
-      <c r="E33" s="17">
-        <f t="shared" ref="E33:J33" si="0">COUNTIF(E4:E32,"✓")</f>
+      <c r="B33" s="15">
+        <f t="shared" ref="B33:N33" si="1">COUNTIF(B4:B31,"–")</f>
         <v>6</v>
       </c>
-      <c r="F33" s="17">
-        <f t="shared" si="0"/>
+      <c r="C33" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G33" s="17">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H33" s="17">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="I33" s="17">
-        <f>COUNTIF(I4:I32,"✓")</f>
-        <v>14</v>
-      </c>
-      <c r="J33" s="17">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="K33" s="17">
-        <f>COUNTIF(K4:K32,"✓")</f>
-        <v>10</v>
-      </c>
-      <c r="L33" s="17">
-        <f t="shared" ref="L33" si="1">COUNTIF(L4:L32,"✓")</f>
-        <v>19</v>
-      </c>
-      <c r="M33" s="17">
-        <f>COUNTIF(M4:M32,"✓")</f>
+      <c r="F33" s="15">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N33" s="17">
-        <f>COUNTIF(N4:N32,"✓")</f>
-        <v>8</v>
+      <c r="G33" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="16">
-        <f>COUNTIF(B4:B32,"–")</f>
-        <v>7</v>
-      </c>
-      <c r="C34" s="16">
-        <f>COUNTIF(C4:C32,"–")</f>
-        <v>5</v>
-      </c>
-      <c r="D34" s="16">
-        <f t="shared" ref="D34:L34" si="2">COUNTIF(D4:D32,"–")</f>
+      <c r="B34" s="15">
+        <f t="shared" ref="B34:H34" si="2">COUNTIF(B4:B31,"✗")</f>
         <v>4</v>
       </c>
-      <c r="E34" s="16">
+      <c r="C34" s="15">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F34" s="16">
-        <f>COUNTIF(F4:F32,"–")</f>
-        <v>7</v>
-      </c>
-      <c r="G34" s="16">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I34" s="16">
-        <f t="shared" ref="I34" si="3">COUNTIF(I4:I32,"–")</f>
-        <v>6</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K34" s="16">
-        <f>COUNTIF(K4:K32,"–")</f>
+      <c r="I34" s="15">
+        <f t="shared" ref="I34" si="3">COUNTIF(I4:I31,"✗")</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="15">
+        <f>COUNTIF(J4:J31,"✗")</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="15">
+        <f>COUNTIF(K4:K31,"✗")</f>
+        <v>4</v>
+      </c>
+      <c r="L34" s="15">
+        <f>COUNTIF(L4:L31,"✗")</f>
+        <v>3</v>
+      </c>
+      <c r="M34" s="15">
+        <f>COUNTIF(M4:M31,"✗")</f>
         <v>8</v>
       </c>
-      <c r="L34" s="16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M34" s="16">
-        <f>COUNTIF(M4:M32,"–")</f>
-        <v>6</v>
-      </c>
-      <c r="N34" s="16">
-        <f>COUNTIF(N4:N32,"–")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="16">
-        <f>COUNTIF(B4:B32,"✗")</f>
+      <c r="N34" s="15">
+        <f>COUNTIF(N4:N31,"✗")</f>
         <v>4</v>
       </c>
-      <c r="C35" s="16">
-        <f>COUNTIF(C4:C32,"✗")</f>
-        <v>4</v>
-      </c>
-      <c r="D35" s="16">
-        <f t="shared" ref="D35:L35" si="4">COUNTIF(D4:D32,"✗")</f>
-        <v>3</v>
-      </c>
-      <c r="E35" s="16">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G35" s="16">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" ref="I35" si="5">COUNTIF(I4:I32,"✗")</f>
-        <v>2</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="16">
-        <f>COUNTIF(K4:K32,"✗")</f>
-        <v>4</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M35" s="16">
-        <f>COUNTIF(M4:M32,"✗")</f>
-        <v>9</v>
-      </c>
-      <c r="N35" s="16">
-        <f>COUNTIF(N4:N32,"✗")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="L37" s="10"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="L36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
